--- a/user_data/trains_data.xlsx
+++ b/user_data/trains_data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev_Progs\irctc_projecct_robot\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF1256D-F8F1-4881-88BD-36B1361A6F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD266F97-F4D0-42A2-B26B-41FA9534D06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="station_code" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="station_code" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">station_code!$A$1:$D$2436</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">station_code!$A$1:$D$2436</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9750" uniqueCount="9703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9770" uniqueCount="9719">
   <si>
     <t>From</t>
   </si>
@@ -29147,6 +29148,54 @@
   </si>
   <si>
     <t>16/11/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:00 - 06:00</t>
+  </si>
+  <si>
+    <t>Time slot</t>
+  </si>
+  <si>
+    <t>seat cetagory</t>
+  </si>
+  <si>
+    <t>train number</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>00:00 - 06:00</t>
+  </si>
+  <si>
+    <t>06:00 - 12:00</t>
+  </si>
+  <si>
+    <t>12:00 - 18:00</t>
+  </si>
+  <si>
+    <t>18:00 - 24:00</t>
   </si>
 </sst>
 </file>
@@ -29201,7 +29250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -29211,6 +29260,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -29495,15 +29547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29539,12 +29591,136 @@
         <v>9702</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9706</v>
+      </c>
+      <c r="B5" s="4">
+        <v>11109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9705</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9704</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4EDA1919-357A-476E-8AAF-6C3B77DFFF20}">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$4:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED5CF65B-2DF4-47CF-8F25-BF3B5E7B0FB4}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$4:$D$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080AABB2-056A-4B76-B204-241BDCC69552}">
+  <dimension ref="A3:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9714</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9713</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9712</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>9711</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>7061</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>9710</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>9709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>9708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>9707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30855C3-8930-44AF-A64E-12983A2C2CE1}">
   <dimension ref="A1:D2436"/>
   <sheetViews>
@@ -46618,11 +46794,11 @@
       <c r="A1219" s="1" t="s">
         <v>4863</v>
       </c>
-      <c r="B1219" s="4" t="s">
+      <c r="B1219" s="5" t="s">
         <v>4864</v>
       </c>
-      <c r="C1219" s="4"/>
-      <c r="D1219" s="4"/>
+      <c r="C1219" s="5"/>
+      <c r="D1219" s="5"/>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1220" s="1" t="s">
